--- a/ZM.xlsx
+++ b/ZM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE16520-FF82-4CD4-9C05-6EE2F4D0A137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970EF1E2-DB52-4AFA-B140-16542984D95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26085" yWindow="1305" windowWidth="25155" windowHeight="18300" xr2:uid="{9C525CF5-C26C-4FFB-84B5-8A4A5748D18A}"/>
+    <workbookView xWindow="-30030" yWindow="2505" windowWidth="28305" windowHeight="17085" xr2:uid="{9C525CF5-C26C-4FFB-84B5-8A4A5748D18A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Price</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>F2023</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -271,7 +274,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -615,64 +618,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DA1292-4BB3-4E25-B194-FEA9C28452EE}">
-  <dimension ref="I2:J7"/>
+  <dimension ref="I2:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="9:10" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <f>263.616605+45.660427</f>
-        <v>309.27703199999996</v>
-      </c>
-    </row>
-    <row r="4" spans="9:10" x14ac:dyDescent="0.2">
+        <f>262.128624+45.660591</f>
+        <v>307.78921500000001</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>17938.067855999998</v>
-      </c>
-    </row>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.2">
+        <v>20314.088190000002</v>
+      </c>
+    </row>
+    <row r="5" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <f>1885.603+5488.737+424.923</f>
-        <v>7799.2629999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.2">
+        <f>1539.457+5980.575+438.529</f>
+        <v>7958.5609999999997</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>10138.804855999999</v>
+        <v>12355.527190000003</v>
       </c>
     </row>
   </sheetData>

--- a/ZM.xlsx
+++ b/ZM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970EF1E2-DB52-4AFA-B140-16542984D95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BDBF63-25B5-4C66-959E-EBFBD75C5FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30030" yWindow="2505" windowWidth="28305" windowHeight="17085" xr2:uid="{9C525CF5-C26C-4FFB-84B5-8A4A5748D18A}"/>
+    <workbookView xWindow="-43140" yWindow="225" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{9C525CF5-C26C-4FFB-84B5-8A4A5748D18A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Martin Shkreli</author>
+  </authors>
+  <commentList>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{66B9C269-381A-47B4-BE11-E72DFE3D4F02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin Shkreli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Teams premium 3m users, +400% y/y</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
@@ -214,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -233,6 +267,19 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -620,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DA1292-4BB3-4E25-B194-FEA9C28452EE}">
   <dimension ref="I2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -693,14 +740,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6423BC04-EBCA-43A1-8487-CD01624D2EE7}">
-  <dimension ref="A1:P47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6423BC04-EBCA-43A1-8487-CD01624D2EE7}">
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O36" sqref="O36"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -788,71 +835,48 @@
         <v>475.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="8" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C8" s="10">
         <v>1117.8030000000001</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="10">
         <v>1105.364</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
         <v>1146.4570000000001</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H8" s="10">
         <v>1141.2339999999999</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>294.35399999999998</v>
-      </c>
-      <c r="D8" s="4">
-        <v>263.947</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>276.30700000000002</v>
-      </c>
-      <c r="H8" s="4">
-        <v>273.30200000000002</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4">
-        <f>+C7-C8</f>
-        <v>823.44900000000007</v>
+        <v>294.35399999999998</v>
       </c>
       <c r="D9" s="4">
-        <f>+D7-D8</f>
-        <v>841.41700000000003</v>
+        <v>263.947</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
-        <f>+G7-G8</f>
-        <v>870.15000000000009</v>
+        <v>276.30700000000002</v>
       </c>
       <c r="H9" s="4">
-        <f>+H7-H8</f>
-        <v>867.9319999999999</v>
+        <v>273.30200000000002</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -860,21 +884,25 @@
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4">
-        <v>261.25799999999998</v>
+        <f>+C8-C9</f>
+        <v>823.44900000000007</v>
       </c>
       <c r="D10" s="4">
-        <v>209.27099999999999</v>
+        <f>+D8-D9</f>
+        <v>841.41700000000003</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
-        <v>205.28200000000001</v>
+        <f>+G8-G9</f>
+        <v>870.15000000000009</v>
       </c>
       <c r="H10" s="4">
-        <v>205.55799999999999</v>
+        <f>+H8-H9</f>
+        <v>867.9319999999999</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -882,21 +910,21 @@
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4">
-        <v>505.58600000000001</v>
+        <v>261.25799999999998</v>
       </c>
       <c r="D11" s="4">
-        <v>422.50400000000002</v>
+        <v>209.27099999999999</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
-        <v>371.05200000000002</v>
+        <v>205.28200000000001</v>
       </c>
       <c r="H11" s="4">
-        <v>348.00799999999998</v>
+        <v>205.55799999999999</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -904,21 +932,21 @@
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
-        <v>186.49199999999999</v>
+        <v>505.58600000000001</v>
       </c>
       <c r="D12" s="4">
-        <v>199</v>
+        <v>422.50400000000002</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
-        <v>125.286</v>
+        <v>371.05200000000002</v>
       </c>
       <c r="H12" s="4">
-        <v>111.34399999999999</v>
+        <v>348.00799999999998</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -926,25 +954,21 @@
     </row>
     <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4">
-        <f>SUM(C10:C12)</f>
-        <v>953.33600000000001</v>
+        <v>186.49199999999999</v>
       </c>
       <c r="D13" s="4">
-        <f>SUM(D10:D12)</f>
-        <v>830.77499999999998</v>
+        <v>199</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
-        <f>SUM(G10:G12)</f>
-        <v>701.62000000000012</v>
+        <v>125.286</v>
       </c>
       <c r="H13" s="4">
-        <f>SUM(H10:H12)</f>
-        <v>664.91000000000008</v>
+        <v>111.34399999999999</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -952,25 +976,25 @@
     </row>
     <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4">
-        <f>C9-C13</f>
-        <v>-129.88699999999994</v>
+        <f>SUM(C11:C13)</f>
+        <v>953.33600000000001</v>
       </c>
       <c r="D14" s="4">
-        <f>D9-D13</f>
-        <v>10.642000000000053</v>
+        <f>SUM(D11:D13)</f>
+        <v>830.77499999999998</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
-        <f>G9-G13</f>
-        <v>168.52999999999997</v>
+        <f>SUM(G11:G13)</f>
+        <v>701.62000000000012</v>
       </c>
       <c r="H14" s="4">
-        <f>H9-H13</f>
-        <v>203.02199999999982</v>
+        <f>SUM(H11:H13)</f>
+        <v>664.91000000000008</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -978,372 +1002,398 @@
     </row>
     <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>49.9</v>
+        <f>C10-C14</f>
+        <v>-129.88699999999994</v>
       </c>
       <c r="D15" s="4">
-        <v>31.213000000000001</v>
+        <f>D10-D14</f>
+        <v>10.642000000000053</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
-        <v>83.057000000000002</v>
+        <f>G10-G14</f>
+        <v>168.52999999999997</v>
       </c>
       <c r="H15" s="4">
-        <v>71.587999999999994</v>
+        <f>H10-H14</f>
+        <v>203.02199999999982</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4">
-        <f>+C14+C15</f>
-        <v>-79.986999999999938</v>
+        <v>49.9</v>
       </c>
       <c r="D16" s="4">
-        <f>+D14+D15</f>
-        <v>41.855000000000054</v>
-      </c>
+        <v>31.213000000000001</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="4">
-        <f>+G14+G15</f>
-        <v>251.58699999999999</v>
+        <v>83.057000000000002</v>
       </c>
       <c r="H16" s="4">
-        <f>+H14+H15</f>
-        <v>274.60999999999979</v>
-      </c>
+        <v>71.587999999999994</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4">
-        <v>64.506</v>
+        <f>+C15+C16</f>
+        <v>-79.986999999999938</v>
       </c>
       <c r="D17" s="4">
-        <v>27.786000000000001</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+        <f>+D15+D16</f>
+        <v>41.855000000000054</v>
+      </c>
       <c r="G17" s="4">
-        <v>54.051000000000002</v>
+        <f>+G15+G16</f>
+        <v>251.58699999999999</v>
       </c>
       <c r="H17" s="4">
-        <v>75.656000000000006</v>
+        <f>+H15+H16</f>
+        <v>274.60999999999979</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4">
-        <f>+C16-C17</f>
-        <v>-144.49299999999994</v>
+        <v>64.506</v>
       </c>
       <c r="D18" s="4">
-        <f>+D16-D17</f>
-        <v>14.069000000000052</v>
-      </c>
+        <v>27.786000000000001</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="4">
-        <f>+G16-G17</f>
-        <v>197.536</v>
+        <v>54.051000000000002</v>
       </c>
       <c r="H18" s="4">
-        <f>+H16-H17</f>
-        <v>198.95399999999978</v>
+        <v>75.656000000000006</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6">
-        <f>+C18/C20</f>
-        <v>-0.49317748561172853</v>
-      </c>
-      <c r="D19" s="6">
-        <f>+D18/D20</f>
-        <v>4.6261965910346994E-2</v>
-      </c>
-      <c r="G19" s="6">
-        <f>+G18/G20</f>
-        <v>0.63016460763054449</v>
-      </c>
-      <c r="H19" s="6">
-        <f>+H18/H20</f>
-        <v>0.63087763909487715</v>
+        <v>19</v>
+      </c>
+      <c r="C19" s="4">
+        <f>+C17-C18</f>
+        <v>-144.49299999999994</v>
+      </c>
+      <c r="D19" s="4">
+        <f>+D17-D18</f>
+        <v>14.069000000000052</v>
+      </c>
+      <c r="G19" s="4">
+        <f>+G17-G18</f>
+        <v>197.536</v>
+      </c>
+      <c r="H19" s="4">
+        <f>+H17-H18</f>
+        <v>198.95399999999978</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6">
+        <f>+C19/C21</f>
+        <v>-0.49317748561172853</v>
+      </c>
+      <c r="D20" s="6">
+        <f>+D19/D21</f>
+        <v>4.6261965910346994E-2</v>
+      </c>
+      <c r="G20" s="6">
+        <f>+G19/G21</f>
+        <v>0.63016460763054449</v>
+      </c>
+      <c r="H20" s="6">
+        <f>+H19/H21</f>
+        <v>0.63087763909487715</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>292.98377199999999</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <v>304.11591299999998</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
         <v>313.46730300000002</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="4">
         <v>315.36067800000001</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="5">
-        <f>+G7/C7-1</f>
+      <c r="G23" s="5">
+        <f>+G8/C8-1</f>
         <v>2.563421282641043E-2</v>
       </c>
-      <c r="H22" s="5">
-        <f>+H7/D7-1</f>
+      <c r="H23" s="5">
+        <f>+H8/D8-1</f>
         <v>3.2450848770178675E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="4">
-        <f>+G18</f>
+      <c r="G25" s="4">
+        <f>+G19</f>
         <v>197.536</v>
       </c>
-      <c r="H24" s="4">
-        <f>+H18</f>
+      <c r="H25" s="4">
+        <f>+H19</f>
         <v>198.95399999999978</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G26" s="4">
         <v>216.30799999999999</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H26" s="4">
         <v>216.30799999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G27" s="4">
         <v>229.42500000000001</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H27" s="4">
         <v>229.42500000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="4">
         <v>68.125</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H28" s="4">
         <v>68.125</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G29" s="4">
         <v>26.667000000000002</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H29" s="4">
         <v>26.667000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="4">
-        <v>-7.952</v>
-      </c>
-      <c r="H29" s="4">
-        <v>-7.952</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" s="4">
-        <v>-17.353999999999999</v>
+        <v>-7.952</v>
       </c>
       <c r="H30" s="4">
-        <v>-17.353999999999999</v>
+        <v>-7.952</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G31" s="4">
-        <v>6.782</v>
+        <v>-17.353999999999999</v>
       </c>
       <c r="H31" s="4">
-        <v>6.782</v>
+        <v>-17.353999999999999</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G32" s="4">
-        <v>7.2370000000000001</v>
+        <v>6.782</v>
       </c>
       <c r="H32" s="4">
-        <v>7.2370000000000001</v>
+        <v>6.782</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G33" s="4">
-        <v>5.3680000000000003</v>
+        <v>7.2370000000000001</v>
       </c>
       <c r="H33" s="4">
-        <v>5.3680000000000003</v>
+        <v>7.2370000000000001</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G34" s="4">
-        <v>-17.667999999999999</v>
+        <v>5.3680000000000003</v>
       </c>
       <c r="H34" s="4">
-        <v>-17.667999999999999</v>
+        <v>5.3680000000000003</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G35" s="4">
-        <v>9.8000000000000004E-2</v>
+        <v>-17.667999999999999</v>
       </c>
       <c r="H35" s="4">
-        <v>9.8000000000000004E-2</v>
+        <v>-17.667999999999999</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H36" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G37" s="4">
         <f>12.26+35.839-40.128+7.276-14.942+77.964-7.114</f>
         <v>71.154999999999987</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H37" s="4">
         <f>12.26+35.839-40.128+7.276-14.942+77.964-7.114</f>
         <v>71.154999999999987</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="4">
-        <f>SUM(G25:G36)</f>
+      <c r="G38" s="4">
+        <f>SUM(G26:G37)</f>
         <v>588.19099999999992</v>
       </c>
-      <c r="H37" s="4">
-        <f>SUM(H25:H36)</f>
+      <c r="H38" s="4">
+        <f>SUM(H26:H37)</f>
         <v>588.19099999999992</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O38" s="2">
         <v>1290.2619999999999</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P38" s="2">
         <v>1598.836</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H40" s="4">
         <f>-867.911+776.941-3+4.654</f>
         <v>-89.315999999999917</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="4">
-        <v>-18.507999999999999</v>
-      </c>
-    </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="4">
+        <v>-18.507999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>36</v>
       </c>
-      <c r="H41" s="4">
-        <f>SUM(H39:H40)</f>
+      <c r="H42" s="4">
+        <f>SUM(H40:H41)</f>
         <v>-107.82399999999991</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="4">
         <f>1.016+6.581</f>
         <v>7.5970000000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" s="4">
-        <v>-150.048</v>
-      </c>
-    </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H45" s="4">
-        <f>SUM(H43:H44)</f>
-        <v>-142.45099999999999</v>
+        <v>-150.048</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H46" s="4">
-        <v>-6.8520000000000003</v>
+        <f>SUM(H44:H45)</f>
+        <v>-142.45099999999999</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="4">
+        <v>-6.8520000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="4">
-        <f>+H46+H45+H41+H37</f>
+      <c r="H48" s="4">
+        <f>+H47+H46+H42+H38</f>
         <v>331.06400000000002</v>
       </c>
     </row>
@@ -1352,5 +1402,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{083A7719-980A-45CE-AB1E-418835C741A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>